--- a/www.eia.gov/electricity/monthly/xls/table_4_11_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_11_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="75">
-  <si>
-    <t>Table 4.11.A. Average Cost of Petroleum Liquids Delivered for Electricity Generation by State, October 2016 and 2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="75">
+  <si>
+    <t>Table 4.11.A. Average Cost of Petroleum Liquids Delivered for Electricity Generation by State, November 2016 and 2015</t>
   </si>
   <si>
     <t>(Dollars per MMBtu)</t>
@@ -46,10 +46,10 @@
     <t/>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -61,10 +61,10 @@
     <t>W</t>
   </si>
   <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
     <t>--</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
   </si>
   <si>
     <t>Maine</t>
@@ -1298,31 +1298,31 @@
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10">
-        <v>7.71</v>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="10">
-        <v>12.82</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>12</v>
+        <v>12.16</v>
+      </c>
+      <c r="F5" s="10">
+        <v>14.25</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="10">
-        <v>7.71</v>
+      <c r="H5" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>11</v>
@@ -1331,13 +1331,13 @@
         <v>11</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>11</v>
@@ -1357,10 +1357,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>11</v>
@@ -1377,22 +1377,22 @@
         <v>11</v>
       </c>
       <c r="C8" s="13">
-        <v>8.2799999999999994</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>12</v>
+      <c r="E8" s="13">
+        <v>21.72</v>
+      </c>
+      <c r="F8" s="13">
+        <v>21.6</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="13">
-        <v>8.2799999999999994</v>
+        <v>9.5399999999999991</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1400,25 +1400,25 @@
         <v>16</v>
       </c>
       <c r="B9" s="13">
-        <v>12.82</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>12</v>
+        <v>11.1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>13.16</v>
+      </c>
+      <c r="D9" s="14">
+        <v>-0.16</v>
       </c>
       <c r="E9" s="13">
-        <v>12.82</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>12</v>
+        <v>11.1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>13.16</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1426,25 +1426,25 @@
         <v>17</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1452,25 +1452,25 @@
         <v>18</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1480,23 +1480,23 @@
       <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>11</v>
+      <c r="C12" s="10">
+        <v>7.35</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="10">
-        <v>7.59</v>
+        <v>7</v>
       </c>
       <c r="F12" s="10">
-        <v>12.09</v>
+        <v>6.71</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>11</v>
+      <c r="H12" s="10">
+        <v>9.52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1506,23 +1506,23 @@
       <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>11</v>
+      <c r="C13" s="13">
+        <v>10.16</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>11</v>
+      <c r="H13" s="13">
+        <v>10.16</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1532,23 +1532,23 @@
       <c r="B14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>11</v>
+      <c r="C14" s="13">
+        <v>7.02</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="13">
-        <v>7.59</v>
+        <v>7</v>
       </c>
       <c r="F14" s="13">
-        <v>12.09</v>
+        <v>6.71</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>11</v>
+      <c r="H14" s="13">
+        <v>8.65</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1556,25 +1556,25 @@
         <v>22</v>
       </c>
       <c r="B15" s="13">
-        <v>10.68</v>
+        <v>11.25</v>
       </c>
       <c r="C15" s="13">
-        <v>11.45</v>
+        <v>11.29</v>
       </c>
       <c r="D15" s="14">
-        <v>-6.7000000000000004E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" s="13">
-        <v>10.68</v>
+        <v>11.25</v>
       </c>
       <c r="H15" s="13">
-        <v>11.45</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1582,51 +1582,51 @@
         <v>23</v>
       </c>
       <c r="B16" s="10">
-        <v>11.93</v>
+        <v>11.74</v>
       </c>
       <c r="C16" s="10">
-        <v>13.64</v>
+        <v>12.15</v>
       </c>
       <c r="D16" s="11">
-        <v>-0.13</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="E16" s="10">
-        <v>12.43</v>
+        <v>11.15</v>
       </c>
       <c r="F16" s="10">
-        <v>13.37</v>
+        <v>12.38</v>
       </c>
       <c r="G16" s="10">
-        <v>11.63</v>
+        <v>12.53</v>
       </c>
       <c r="H16" s="10">
-        <v>14.41</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="13">
-        <v>12.01</v>
+      <c r="B17" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="C17" s="13">
+        <v>11.63</v>
+      </c>
+      <c r="D17" s="14">
+        <v>-0.02</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="13">
-        <v>14.36</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>11</v>
+        <v>12.51</v>
+      </c>
+      <c r="G17" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="H17" s="13">
+        <v>11.32</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1634,25 +1634,25 @@
         <v>25</v>
       </c>
       <c r="B18" s="13">
-        <v>12.09</v>
+        <v>11.22</v>
       </c>
       <c r="C18" s="13">
-        <v>13.76</v>
+        <v>12.06</v>
       </c>
       <c r="D18" s="14">
-        <v>-0.12</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E18" s="13">
-        <v>12.09</v>
+        <v>11.22</v>
       </c>
       <c r="F18" s="13">
-        <v>13.76</v>
+        <v>12.06</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1660,103 +1660,103 @@
         <v>26</v>
       </c>
       <c r="B19" s="13">
-        <v>12.39</v>
+        <v>11.07</v>
       </c>
       <c r="C19" s="13">
-        <v>13.76</v>
+        <v>10.99</v>
       </c>
       <c r="D19" s="14">
-        <v>-0.1</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E19" s="13">
-        <v>12.39</v>
+        <v>11.07</v>
       </c>
       <c r="F19" s="13">
-        <v>13.76</v>
+        <v>10.99</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>11</v>
+      <c r="B20" s="13">
+        <v>12.06</v>
+      </c>
+      <c r="C20" s="13">
+        <v>12.12</v>
+      </c>
+      <c r="D20" s="14">
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E20" s="13">
-        <v>12.92</v>
+        <v>11.17</v>
       </c>
       <c r="F20" s="13">
-        <v>13.46</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>11</v>
+        <v>12.67</v>
+      </c>
+      <c r="G20" s="13">
+        <v>12.78</v>
+      </c>
+      <c r="H20" s="13">
+        <v>11.53</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>12</v>
+      <c r="B21" s="13">
+        <v>11.01</v>
       </c>
       <c r="C21" s="13">
-        <v>11.87</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>12</v>
+        <v>13.42</v>
+      </c>
+      <c r="D21" s="14">
+        <v>-0.18</v>
+      </c>
+      <c r="E21" s="13">
+        <v>11.01</v>
       </c>
       <c r="F21" s="13">
-        <v>11.87</v>
+        <v>13.42</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>11</v>
+      <c r="B22" s="10">
+        <v>10.93</v>
       </c>
       <c r="C22" s="10">
-        <v>10.89</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>11</v>
+        <v>12.12</v>
+      </c>
+      <c r="D22" s="11">
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="E22" s="10">
-        <v>12.34</v>
+        <v>10.93</v>
       </c>
       <c r="F22" s="10">
-        <v>10.89</v>
+        <v>12.12</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1764,77 +1764,77 @@
         <v>30</v>
       </c>
       <c r="B23" s="13">
-        <v>12.55</v>
+        <v>11.14</v>
       </c>
       <c r="C23" s="13">
-        <v>11.93</v>
+        <v>12.26</v>
       </c>
       <c r="D23" s="14">
-        <v>5.1999999999999998E-2</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>12.55</v>
+        <v>11.14</v>
       </c>
       <c r="F23" s="13">
-        <v>11.93</v>
+        <v>12.26</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>12</v>
+      <c r="B24" s="13">
+        <v>10.89</v>
       </c>
       <c r="C24" s="13">
-        <v>11.54</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>12</v>
+        <v>11.38</v>
+      </c>
+      <c r="D24" s="14">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="E24" s="13">
+        <v>10.89</v>
       </c>
       <c r="F24" s="13">
-        <v>11.54</v>
+        <v>11.38</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>11</v>
+      <c r="B25" s="13">
+        <v>11.94</v>
       </c>
       <c r="C25" s="13">
-        <v>13.68</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>11</v>
+        <v>13.15</v>
+      </c>
+      <c r="D25" s="14">
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="E25" s="13">
-        <v>12.66</v>
+        <v>11.94</v>
       </c>
       <c r="F25" s="13">
-        <v>13.68</v>
+        <v>13.15</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1842,51 +1842,51 @@
         <v>33</v>
       </c>
       <c r="B26" s="13">
-        <v>11.89</v>
+        <v>11.25</v>
       </c>
       <c r="C26" s="13">
-        <v>14.32</v>
+        <v>11.53</v>
       </c>
       <c r="D26" s="14">
-        <v>-0.17</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="E26" s="13">
-        <v>11.89</v>
+        <v>11.25</v>
       </c>
       <c r="F26" s="13">
-        <v>14.32</v>
+        <v>11.53</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="13">
-        <v>13.74</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>12</v>
+      <c r="B27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="13">
+        <v>13.47</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="13">
-        <v>13.74</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="13">
+        <v>13.47</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1894,51 +1894,51 @@
         <v>35</v>
       </c>
       <c r="B28" s="13">
-        <v>12.82</v>
+        <v>8.44</v>
       </c>
       <c r="C28" s="13">
-        <v>11.79</v>
+        <v>11.18</v>
       </c>
       <c r="D28" s="14">
-        <v>8.6999999999999994E-2</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" s="13">
-        <v>12.82</v>
+        <v>8.44</v>
       </c>
       <c r="F28" s="13">
-        <v>11.79</v>
+        <v>11.18</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="13">
-        <v>8.24</v>
+      <c r="B29" s="13">
+        <v>10.54</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="13">
-        <v>8.24</v>
+        <v>13</v>
+      </c>
+      <c r="E29" s="13">
+        <v>10.54</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="10">
-        <v>12.2</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>11</v>
@@ -1955,13 +1955,13 @@
         <v>11</v>
       </c>
       <c r="E30" s="10">
-        <v>12.06</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="F30" s="10">
-        <v>12.7</v>
+        <v>10.98</v>
       </c>
       <c r="G30" s="10">
-        <v>12.36</v>
+        <v>11.75</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>11</v>
@@ -1972,25 +1972,25 @@
         <v>38</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1998,103 +1998,103 @@
         <v>39</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>11</v>
+      <c r="B33" s="13">
+        <v>12.05</v>
       </c>
       <c r="C33" s="13">
-        <v>11.85</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>11</v>
+        <v>11.89</v>
+      </c>
+      <c r="D33" s="14">
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E33" s="13">
-        <v>13.62</v>
+        <v>12.05</v>
       </c>
       <c r="F33" s="13">
-        <v>11.85</v>
+        <v>11.89</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="13">
-        <v>11.71</v>
+      <c r="B34" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C34" s="13">
-        <v>10.82</v>
-      </c>
-      <c r="D34" s="14">
-        <v>8.2000000000000003E-2</v>
+        <v>10.74</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="E34" s="13">
-        <v>11.71</v>
+        <v>10.86</v>
       </c>
       <c r="F34" s="13">
-        <v>10.82</v>
+        <v>10.74</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>11</v>
+      <c r="B35" s="13">
+        <v>10.97</v>
       </c>
       <c r="C35" s="13">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>11</v>
+        <v>10.65</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0.03</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G35" s="13">
+        <v>10.97</v>
       </c>
       <c r="H35" s="13">
-        <v>9.2100000000000009</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="13">
-        <v>12.01</v>
+        <v>11.29</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>11</v>
@@ -2111,13 +2111,13 @@
         <v>11</v>
       </c>
       <c r="E36" s="13">
-        <v>12.01</v>
+        <v>11.29</v>
       </c>
       <c r="F36" s="13">
-        <v>11.43</v>
+        <v>10.59</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>11</v>
@@ -2128,25 +2128,25 @@
         <v>44</v>
       </c>
       <c r="B37" s="13">
-        <v>12.49</v>
+        <v>12.37</v>
       </c>
       <c r="C37" s="13">
-        <v>13.77</v>
+        <v>12.29</v>
       </c>
       <c r="D37" s="14">
-        <v>-9.2999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E37" s="13">
-        <v>12.49</v>
+        <v>12.37</v>
       </c>
       <c r="F37" s="13">
-        <v>13.77</v>
+        <v>12.29</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2163,10 +2163,10 @@
         <v>11</v>
       </c>
       <c r="E38" s="13">
-        <v>11.73</v>
+        <v>7.61</v>
       </c>
       <c r="F38" s="13">
-        <v>13.07</v>
+        <v>9.76</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>11</v>
@@ -2179,26 +2179,26 @@
       <c r="A39" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="13">
-        <v>12.15</v>
+      <c r="B39" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C39" s="13">
-        <v>13.45</v>
-      </c>
-      <c r="D39" s="14">
-        <v>-9.7000000000000003E-2</v>
+        <v>11.98</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="E39" s="13">
-        <v>12.15</v>
+        <v>12.84</v>
       </c>
       <c r="F39" s="13">
-        <v>13.45</v>
+        <v>11.98</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="B40" s="10">
-        <v>11.94</v>
+        <v>11.44</v>
       </c>
       <c r="C40" s="10">
-        <v>13.23</v>
+        <v>11.54</v>
       </c>
       <c r="D40" s="11">
-        <v>-9.8000000000000004E-2</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E40" s="10">
-        <v>11.94</v>
+        <v>11.44</v>
       </c>
       <c r="F40" s="10">
-        <v>13.23</v>
+        <v>11.54</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2232,25 +2232,25 @@
         <v>48</v>
       </c>
       <c r="B41" s="13">
-        <v>12.64</v>
+        <v>12</v>
       </c>
       <c r="C41" s="13">
-        <v>13.11</v>
+        <v>12.02</v>
       </c>
       <c r="D41" s="14">
-        <v>-3.5999999999999997E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="E41" s="13">
-        <v>12.64</v>
+        <v>12</v>
       </c>
       <c r="F41" s="13">
-        <v>13.11</v>
+        <v>12.02</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2258,25 +2258,25 @@
         <v>49</v>
       </c>
       <c r="B42" s="13">
-        <v>11.93</v>
+        <v>11.38</v>
       </c>
       <c r="C42" s="13">
-        <v>13.42</v>
+        <v>11.78</v>
       </c>
       <c r="D42" s="14">
-        <v>-0.11</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="E42" s="13">
-        <v>11.93</v>
+        <v>11.38</v>
       </c>
       <c r="F42" s="13">
-        <v>13.42</v>
+        <v>11.78</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2284,25 +2284,25 @@
         <v>50</v>
       </c>
       <c r="B43" s="13">
-        <v>12.11</v>
+        <v>11.46</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" s="13">
-        <v>12.11</v>
+        <v>11.46</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="B44" s="13">
-        <v>11.74</v>
+        <v>11.42</v>
       </c>
       <c r="C44" s="13">
-        <v>11.34</v>
+        <v>10.62</v>
       </c>
       <c r="D44" s="14">
-        <v>3.5000000000000003E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E44" s="13">
-        <v>11.74</v>
+        <v>11.42</v>
       </c>
       <c r="F44" s="13">
-        <v>11.34</v>
+        <v>10.62</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2345,10 +2345,10 @@
         <v>11</v>
       </c>
       <c r="E45" s="10">
-        <v>11.96</v>
+        <v>10.92</v>
       </c>
       <c r="F45" s="10">
-        <v>11.6</v>
+        <v>11.61</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>11</v>
@@ -2361,8 +2361,8 @@
       <c r="A46" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="13">
-        <v>11.97</v>
+      <c r="B46" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>11</v>
@@ -2371,13 +2371,13 @@
         <v>11</v>
       </c>
       <c r="E46" s="13">
-        <v>11.97</v>
+        <v>10.89</v>
       </c>
       <c r="F46" s="13">
-        <v>11.98</v>
+        <v>11.63</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>11</v>
@@ -2387,8 +2387,8 @@
       <c r="A47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="13">
-        <v>12.04</v>
+      <c r="B47" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>11</v>
@@ -2396,14 +2396,14 @@
       <c r="D47" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="13">
-        <v>12.04</v>
-      </c>
-      <c r="F47" s="13">
-        <v>10.71</v>
+      <c r="E47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>11</v>
@@ -2413,26 +2413,26 @@
       <c r="A48" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="13">
-        <v>12.16</v>
-      </c>
-      <c r="C48" s="13">
-        <v>12.43</v>
-      </c>
-      <c r="D48" s="14">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="E48" s="13">
-        <v>12.16</v>
-      </c>
-      <c r="F48" s="13">
-        <v>12.43</v>
+      <c r="B48" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2443,22 +2443,22 @@
         <v>11</v>
       </c>
       <c r="C49" s="13">
-        <v>11.6</v>
+        <v>11.54</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="13">
-        <v>9.0399999999999991</v>
+        <v>11</v>
       </c>
       <c r="F49" s="13">
-        <v>11.6</v>
+        <v>11.54</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2475,10 +2475,10 @@
         <v>11</v>
       </c>
       <c r="E50" s="10">
-        <v>12.21</v>
+        <v>12.52</v>
       </c>
       <c r="F50" s="10">
-        <v>13.07</v>
+        <v>13.22</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>11</v>
@@ -2492,51 +2492,51 @@
         <v>58</v>
       </c>
       <c r="B51" s="13">
-        <v>11.74</v>
+        <v>12.82</v>
       </c>
       <c r="C51" s="13">
-        <v>13.86</v>
+        <v>13.63</v>
       </c>
       <c r="D51" s="14">
-        <v>-0.15</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="E51" s="13">
-        <v>11.74</v>
+        <v>12.82</v>
       </c>
       <c r="F51" s="13">
-        <v>13.86</v>
+        <v>13.63</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="13">
-        <v>12.55</v>
+      <c r="B52" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="13">
-        <v>12.55</v>
+        <v>13</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2544,25 +2544,25 @@
         <v>60</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2570,25 +2570,25 @@
         <v>61</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>62</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>11</v>
@@ -2605,13 +2605,13 @@
         <v>11</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F55" s="13">
-        <v>19.079999999999998</v>
+        <v>12.67</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>11</v>
@@ -2622,25 +2622,25 @@
         <v>63</v>
       </c>
       <c r="B56" s="13">
-        <v>13.05</v>
+        <v>13.31</v>
       </c>
       <c r="C56" s="13">
-        <v>12.55</v>
+        <v>14.98</v>
       </c>
       <c r="D56" s="14">
-        <v>0.04</v>
+        <v>-0.11</v>
       </c>
       <c r="E56" s="13">
-        <v>13.05</v>
+        <v>13.31</v>
       </c>
       <c r="F56" s="13">
-        <v>12.55</v>
+        <v>14.98</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="13">
-        <v>13.13</v>
+        <v>11.43</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>11</v>
@@ -2657,13 +2657,13 @@
         <v>11</v>
       </c>
       <c r="E57" s="13">
-        <v>13.13</v>
+        <v>11.43</v>
       </c>
       <c r="F57" s="13">
-        <v>14.62</v>
+        <v>13.88</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>11</v>
@@ -2674,25 +2674,25 @@
         <v>65</v>
       </c>
       <c r="B58" s="13">
-        <v>11.21</v>
+        <v>11.75</v>
       </c>
       <c r="C58" s="13">
-        <v>11.72</v>
+        <v>12.29</v>
       </c>
       <c r="D58" s="14">
         <v>-4.3999999999999997E-2</v>
       </c>
       <c r="E58" s="13">
-        <v>11.21</v>
+        <v>11.75</v>
       </c>
       <c r="F58" s="13">
-        <v>11.72</v>
+        <v>12.29</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2708,11 +2708,11 @@
       <c r="D59" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>12</v>
+      <c r="E59" s="10">
+        <v>12.29</v>
+      </c>
+      <c r="F59" s="10">
+        <v>10.66</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>11</v>
@@ -2726,25 +2726,25 @@
         <v>67</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2752,25 +2752,25 @@
         <v>68</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C61" s="13">
+        <v>10.53</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F61" s="13">
+        <v>10.53</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2786,11 +2786,11 @@
       <c r="D62" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>12</v>
+      <c r="E62" s="13">
+        <v>12.29</v>
+      </c>
+      <c r="F62" s="13">
+        <v>11.29</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>11</v>
@@ -2813,10 +2813,10 @@
         <v>11</v>
       </c>
       <c r="E63" s="10">
-        <v>9.2200000000000006</v>
+        <v>10.19</v>
       </c>
       <c r="F63" s="10">
-        <v>8.3699999999999992</v>
+        <v>9.01</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>11</v>
@@ -2830,25 +2830,25 @@
         <v>71</v>
       </c>
       <c r="B64" s="13">
-        <v>15.57</v>
+        <v>16.04</v>
       </c>
       <c r="C64" s="13">
-        <v>16.37</v>
+        <v>15.73</v>
       </c>
       <c r="D64" s="14">
-        <v>-4.9000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E64" s="13">
-        <v>15.57</v>
+        <v>16.04</v>
       </c>
       <c r="F64" s="13">
-        <v>16.37</v>
+        <v>15.73</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2865,10 +2865,10 @@
         <v>11</v>
       </c>
       <c r="E65" s="13">
-        <v>9.19</v>
+        <v>10.17</v>
       </c>
       <c r="F65" s="13">
-        <v>8.36</v>
+        <v>9</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>11</v>
@@ -2882,25 +2882,25 @@
         <v>73</v>
       </c>
       <c r="B66" s="10">
-        <v>9.9700000000000006</v>
+        <v>10.06</v>
       </c>
       <c r="C66" s="10">
-        <v>9.0399999999999991</v>
+        <v>8.93</v>
       </c>
       <c r="D66" s="11">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E66" s="10">
-        <v>9.75</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="F66" s="10">
-        <v>9.43</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G66" s="10">
-        <v>10.39</v>
+        <v>10.76</v>
       </c>
       <c r="H66" s="10">
-        <v>8.6999999999999993</v>
+        <v>9.1300000000000008</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="186.95" customHeight="1" x14ac:dyDescent="0.25">
